--- a/biology/Médecine/1521_en_santé_et_médecine/1521_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1521_en_santé_et_médecine/1521_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1521_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1521_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1521 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1521_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1521_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'expertise des deux médecins qui certifient que la maladie du cardinal Domenico Grimani l'oblige à se retirer du conclave n'est pas contestée[1].
-Dans des lettres au cardinal Pietro Bembo, le médecin, naturaliste, philosophe et poète Girolamo Fracastoro décrit une maladie encore inconnue, venue du Nouveau Monde, qu'il nomme pour la première fois syphilis et sur laquelle il publiera, en août 1530 à Vérone, un poème intitulé Syphilidis, sive morbi gallici, libri tres[2].
-1521-1524 : Nostradamus prépare le baccalauréat à l'université de Montpellier où, réinscrit de 1529 à 1533, il obtiendra le grade de docteur en médecine[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'expertise des deux médecins qui certifient que la maladie du cardinal Domenico Grimani l'oblige à se retirer du conclave n'est pas contestée.
+Dans des lettres au cardinal Pietro Bembo, le médecin, naturaliste, philosophe et poète Girolamo Fracastoro décrit une maladie encore inconnue, venue du Nouveau Monde, qu'il nomme pour la première fois syphilis et sur laquelle il publiera, en août 1530 à Vérone, un poème intitulé Syphilidis, sive morbi gallici, libri tres.
+1521-1524 : Nostradamus prépare le baccalauréat à l'université de Montpellier où, réinscrit de 1529 à 1533, il obtiendra le grade de docteur en médecine.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1521_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1521_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À l'initiative d'Ettore Vernazza (it) et Marie Laurence Longo, « le vice-roi Raimondo Cardona pos[e] la première pierre de l'hôpital de la Sainte-Maison des Incurables, à Naples[4],[5] ».
-Premiers règlements connus pour les examens pharmaceutiques au Portugal[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À l'initiative d'Ettore Vernazza (it) et Marie Laurence Longo, « le vice-roi Raimondo Cardona pos[e] la première pierre de l'hôpital de la Sainte-Maison des Incurables, à Naples, ».
+Premiers règlements connus pour les examens pharmaceutiques au Portugal.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1521_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1521_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les Commentaires sur Mondino de Jacopo Berengario da Carpi (1460-1530[7]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Commentaires sur Mondino de Jacopo Berengario da Carpi (1460-1530).</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1521_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1521_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Forestus (mort en 1597), médecin néerlandais, surnommé « l'Hippocrate des Provinces-Unies[8] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Forestus (mort en 1597), médecin néerlandais, surnommé « l'Hippocrate des Provinces-Unies ».</t>
         </is>
       </c>
     </row>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1521_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1521_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,9 +654,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Andrea Alpago (né  vers 1450), médecin et arabisant italien[9].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Andrea Alpago (né  vers 1450), médecin et arabisant italien.</t>
         </is>
       </c>
     </row>
